--- a/lab4/report/lab4_data.xlsx
+++ b/lab4/report/lab4_data.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>N\B</t>
   </si>
@@ -42,58 +45,46 @@
     <t>Standard Deviation of Data Transmission Time</t>
   </si>
   <si>
-    <t>0.000436-0.000723</t>
-  </si>
-  <si>
-    <t>0.000744-0.00103</t>
-  </si>
-  <si>
-    <t>0.001144-0.001351</t>
-  </si>
-  <si>
-    <t>0.001353-0.001657</t>
-  </si>
-  <si>
-    <t>0.001661-0.001953</t>
-  </si>
-  <si>
-    <t>0.001963-0.002267</t>
-  </si>
-  <si>
-    <t>0.002268-0.002573</t>
-  </si>
-  <si>
-    <t>0.002575-0.002868</t>
-  </si>
-  <si>
-    <t>0.002881-0.003158</t>
-  </si>
-  <si>
-    <t>0.003216-0.003482</t>
-  </si>
-  <si>
-    <t>0.003511-0.003791</t>
-  </si>
-  <si>
-    <t>0.003822-0.004047</t>
-  </si>
-  <si>
-    <t>0.004275-0.004366</t>
-  </si>
-  <si>
-    <t>0.004482-0.004488</t>
-  </si>
-  <si>
-    <t>0.004981-0.004999</t>
-  </si>
-  <si>
-    <t>0.005321-0.005321</t>
-  </si>
-  <si>
     <t>Range</t>
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>0.0000-0.0005</t>
+  </si>
+  <si>
+    <t>0.0005-0.0010</t>
+  </si>
+  <si>
+    <t>0.0010-0.0015</t>
+  </si>
+  <si>
+    <t>0.0015-0.0020</t>
+  </si>
+  <si>
+    <t>0.0020-0.0025</t>
+  </si>
+  <si>
+    <t>0.0025-0.0030</t>
+  </si>
+  <si>
+    <t>0.0030-0.0035</t>
+  </si>
+  <si>
+    <t>0.0035-0.0040</t>
+  </si>
+  <si>
+    <t>0.0040-0.0045</t>
+  </si>
+  <si>
+    <t>0.0045-0.0050</t>
+  </si>
+  <si>
+    <t>0.0050-0.0055</t>
+  </si>
+  <si>
+    <t>0.0055-0.0060</t>
   </si>
 </sst>
 </file>
@@ -642,11 +633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1136487616"/>
-        <c:axId val="1136495776"/>
+        <c:axId val="246015168"/>
+        <c:axId val="246003200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1136487616"/>
+        <c:axId val="246015168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1136495776"/>
+        <c:crossAx val="246003200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1136495776"/>
+        <c:axId val="246003200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.1000000000000006E-4"/>
@@ -861,7 +852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1136487616"/>
+        <c:crossAx val="246015168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,11 +1424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1342199360"/>
-        <c:axId val="1342200448"/>
+        <c:axId val="462234192"/>
+        <c:axId val="462233104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1342199360"/>
+        <c:axId val="462234192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342200448"/>
+        <c:crossAx val="462233104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1544,7 +1535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342200448"/>
+        <c:axId val="462233104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.2300000000000006E-3"/>
@@ -1653,7 +1644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342199360"/>
+        <c:crossAx val="462234192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1755,6 +1746,1653 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Conclusive Graph of Data Transmission</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tables!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.322E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3470000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4760000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5640000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tables!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.413E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.446E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.457E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4059999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3990000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tables!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.542E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5250000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4940000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4909999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tables!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7179999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6639999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6429999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.627E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tables!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$33:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.196E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1080000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.013E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0939999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="538033200"/>
+        <c:axId val="538040816"/>
+        <c:axId val="538345856"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="538033200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Buffer Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538040816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538040816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmission Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538033200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="538345856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.91121101685201644"/>
+              <c:y val="0.56033633142620931"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538040816"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1769,11 +3407,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data Transmission</a:t>
+              <a:t>Data Transmission Histogram</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Histogram (N=320, B=10)</a:t>
+              <a:t> (N=320, B=10)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1814,22 +3452,11 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Histogram!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1841,6 +3468,153 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1105433854666572E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.4834628722257274E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.2000046604343949E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.9469430727938667E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.1105433854666572E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2284100080711433E-3"/>
+                  <c:y val="-3.8430789371667523E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1837366616657815E-16"/>
+                  <c:y val="-3.2304224683779033E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1870,7 +3644,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1901,120 +3675,96 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Histogram!$D$5:$D$20</c:f>
+              <c:f>[1]histo!$B$1:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.000436-0.000723</c:v>
+                  <c:v>0.0000-0.0005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000744-0.00103</c:v>
+                  <c:v>0.0005-0.0010</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001144-0.001351</c:v>
+                  <c:v>0.0010-0.0015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.001353-0.001657</c:v>
+                  <c:v>0.0015-0.0020</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.001661-0.001953</c:v>
+                  <c:v>0.0020-0.0025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.001963-0.002267</c:v>
+                  <c:v>0.0025-0.0030</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.002268-0.002573</c:v>
+                  <c:v>0.0030-0.0035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.002575-0.002868</c:v>
+                  <c:v>0.0035-0.0040</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.002881-0.003158</c:v>
+                  <c:v>0.0040-0.0045</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.003216-0.003482</c:v>
+                  <c:v>0.0045-0.0050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.003511-0.003791</c:v>
+                  <c:v>0.0050-0.0055</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.003822-0.004047</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.004275-0.004366</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.004482-0.004488</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.004981-0.004999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.005321-0.005321</c:v>
+                  <c:v>0.0055-0.0060</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Histogram!$E$5:$E$20</c:f>
+              <c:f>[1]histo!$C$1:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2022,18 +3772,32 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1588602480"/>
-        <c:axId val="1588603024"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="462237456"/>
+        <c:axId val="462229296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1588602480"/>
+        <c:axId val="462237456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2055,7 +3819,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time Range (</a:t>
+                  <a:t>Time Range (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2127,7 +3891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588603024"/>
+        <c:crossAx val="462229296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2135,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1588603024"/>
+        <c:axId val="462229296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +4006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588602480"/>
+        <c:crossAx val="462237456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3418,7 +5182,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3622,22 +5386,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3742,8 +5507,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3875,19 +5640,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3984,6 +5750,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47623</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3991,21 +5787,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>280986</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>458667</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>519793</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4020,6 +5818,116 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="histo"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>0.0000-0.0005</v>
+          </cell>
+          <cell r="C1">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>0.0005-0.0010</v>
+          </cell>
+          <cell r="C2">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>0.0010-0.0015</v>
+          </cell>
+          <cell r="C3">
+            <v>190</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>0.0015-0.0020</v>
+          </cell>
+          <cell r="C4">
+            <v>187</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>0.0020-0.0025</v>
+          </cell>
+          <cell r="C5">
+            <v>459</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>0.0025-0.0030</v>
+          </cell>
+          <cell r="C6">
+            <v>109</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>0.0030-0.0035</v>
+          </cell>
+          <cell r="C7">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>0.0035-0.0040</v>
+          </cell>
+          <cell r="C8">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>0.0040-0.0045</v>
+          </cell>
+          <cell r="C9">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>0.0045-0.0050</v>
+          </cell>
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>0.0050-0.0055</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>0.0055-0.0060</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4287,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4564,9 +6472,6 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
       <c r="B28">
         <v>1</v>
       </c>
@@ -4829,8 +6734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4858,10 +6763,10 @@
         <v>2.3080000000000002E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,10 +6774,10 @@
         <v>2.9840000000000001E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4880,10 +6785,10 @@
         <v>2.3930000000000002E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4891,10 +6796,10 @@
         <v>2.372E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4902,10 +6807,10 @@
         <v>2.7550000000000001E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>122</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4913,10 +6818,10 @@
         <v>2.2829999999999999E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>132</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4924,10 +6829,10 @@
         <v>2.7430000000000002E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4935,10 +6840,10 @@
         <v>2.3709999999999998E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>263</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4946,10 +6851,10 @@
         <v>2.4359999999999998E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4957,10 +6862,10 @@
         <v>2.0470000000000002E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4968,10 +6873,10 @@
         <v>2.9840000000000001E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,10 +6884,10 @@
         <v>2.3609999999999998E-3</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4990,112 +6895,88 @@
         <v>2.32E-3</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.356E-3</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.923E-3</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.8749999999999999E-3</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.2880000000000001E-3</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.3289999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.6559999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.4329999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.4620000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.9819999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.33E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.3939999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.3570000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.3760000000000001E-3</v>
       </c>
